--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_E_Control.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_E_Control.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BAO HANH\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102" sheetId="30" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="92">
   <si>
     <t>STT</t>
   </si>
@@ -742,29 +742,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -787,14 +766,35 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1102,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1134,43 +1134,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1215,58 +1215,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="80" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="76" t="s">
+      <c r="W4" s="79" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1291,24 +1291,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1331,7 +1331,7 @@
         <v>72</v>
       </c>
       <c r="H6" s="51"/>
-      <c r="I6" s="88" t="s">
+      <c r="I6" s="71" t="s">
         <v>91</v>
       </c>
       <c r="J6" s="53" t="s">
@@ -1360,7 +1360,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="79" t="s">
+      <c r="V6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1421,7 +1421,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="80"/>
+      <c r="V7" s="73"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="80"/>
+      <c r="V8" s="73"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1523,7 +1523,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="80"/>
+      <c r="V9" s="73"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1578,7 +1578,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="80"/>
+      <c r="V10" s="73"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1607,7 +1607,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="80"/>
+      <c r="V11" s="73"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1636,7 +1636,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="79" t="s">
+      <c r="V12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1667,7 +1667,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="80"/>
+      <c r="V13" s="73"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1696,7 +1696,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="80"/>
+      <c r="V14" s="73"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1725,7 +1725,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="80"/>
+      <c r="V15" s="73"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1754,7 +1754,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="81"/>
+      <c r="V16" s="74"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2988,10 +2988,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="82" t="s">
+      <c r="V56" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="82">
+      <c r="W56" s="75">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3020,8 +3020,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="83"/>
-      <c r="W57" s="83"/>
+      <c r="V57" s="76"/>
+      <c r="W57" s="76"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3047,8 +3047,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="84"/>
-      <c r="W58" s="84"/>
+      <c r="V58" s="77"/>
+      <c r="W58" s="77"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4335,6 +4335,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4345,16 +4355,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4365,8 +4365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4397,43 +4397,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4478,58 +4478,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="80" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="76" t="s">
+      <c r="W4" s="79" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4554,24 +4554,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4625,7 +4625,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="70"/>
-      <c r="V6" s="79" t="s">
+      <c r="V6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4684,7 +4684,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="70"/>
-      <c r="V7" s="80"/>
+      <c r="V7" s="73"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4713,7 +4713,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="80"/>
+      <c r="V8" s="73"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4742,7 +4742,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="70"/>
       <c r="U9" s="70"/>
-      <c r="V9" s="80"/>
+      <c r="V9" s="73"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4771,7 +4771,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
       <c r="U10" s="70"/>
-      <c r="V10" s="80"/>
+      <c r="V10" s="73"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4800,7 +4800,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="80"/>
+      <c r="V11" s="73"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4829,7 +4829,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
       <c r="U12" s="70"/>
-      <c r="V12" s="79" t="s">
+      <c r="V12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4860,7 +4860,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
       <c r="U13" s="70"/>
-      <c r="V13" s="80"/>
+      <c r="V13" s="73"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4889,7 +4889,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
-      <c r="V14" s="80"/>
+      <c r="V14" s="73"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4918,7 +4918,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="80"/>
+      <c r="V15" s="73"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4947,7 +4947,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="81"/>
+      <c r="V16" s="74"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6181,10 +6181,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="82" t="s">
+      <c r="V56" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="82">
+      <c r="W56" s="75">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>2</v>
       </c>
@@ -6213,8 +6213,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="83"/>
-      <c r="W57" s="83"/>
+      <c r="V57" s="76"/>
+      <c r="W57" s="76"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6240,8 +6240,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="84"/>
-      <c r="W58" s="84"/>
+      <c r="V58" s="77"/>
+      <c r="W58" s="77"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7527,6 +7527,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7537,16 +7547,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7556,8 +7556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7588,43 +7588,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7669,58 +7669,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="80" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="76" t="s">
+      <c r="W4" s="79" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -7745,50 +7745,76 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
+      <c r="B6" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="52">
+        <v>864161026864749</v>
+      </c>
       <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
+      <c r="G6" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="51"/>
+      <c r="I6" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>75</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="O6" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="79" t="s">
+      <c r="V6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7799,27 +7825,57 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
+      <c r="B7" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="52">
+        <v>864161020959693</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>72</v>
+      </c>
       <c r="H7" s="51"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="I7" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="56"/>
+      <c r="O7" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="80"/>
+      <c r="V7" s="73"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7828,27 +7884,51 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
+      <c r="B8" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="52">
+        <v>862118022277484</v>
+      </c>
       <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
+      <c r="G8" s="51" t="s">
+        <v>72</v>
+      </c>
       <c r="H8" s="51"/>
-      <c r="I8" s="53"/>
+      <c r="I8" s="53" t="s">
+        <v>77</v>
+      </c>
       <c r="J8" s="53"/>
       <c r="K8" s="56"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
+      <c r="L8" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="53" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="56"/>
+      <c r="O8" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="80"/>
+      <c r="V8" s="73"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7857,27 +7937,47 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="56"/>
+      <c r="B9" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="52">
+        <v>864161020992066</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="66"/>
+      <c r="J9" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="53"/>
       <c r="L9" s="53"/>
       <c r="M9" s="53"/>
       <c r="N9" s="55"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
+      <c r="O9" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>84</v>
+      </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="51"/>
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="80"/>
+      <c r="V9" s="73"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7886,27 +7986,53 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
+      <c r="B10" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="52">
+        <v>865904027266680</v>
+      </c>
       <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
+      <c r="G10" s="51" t="s">
+        <v>72</v>
+      </c>
       <c r="H10" s="51"/>
-      <c r="I10" s="53"/>
+      <c r="I10" s="66" t="s">
+        <v>77</v>
+      </c>
       <c r="J10" s="53"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="K10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="53" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="3"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="56"/>
+      <c r="O10" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="80"/>
+      <c r="V10" s="73"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7915,27 +8041,55 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
+      <c r="B11" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="52">
+        <v>866104028884925</v>
+      </c>
       <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
+      <c r="G11" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" s="53" t="s">
+        <v>82</v>
+      </c>
       <c r="N11" s="55"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="51"/>
+      <c r="O11" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="80"/>
+      <c r="V11" s="73"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7944,27 +8098,55 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
+      <c r="B12" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="52">
+        <v>866104027008476</v>
+      </c>
       <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="51"/>
+      <c r="G12" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="79" t="s">
+      <c r="V12" s="72" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -7995,7 +8177,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="80"/>
+      <c r="V13" s="73"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8024,7 +8206,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="80"/>
+      <c r="V14" s="73"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8053,7 +8235,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="80"/>
+      <c r="V15" s="73"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8082,7 +8264,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="81"/>
+      <c r="V16" s="74"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8201,7 +8383,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8670,7 +8852,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8734,7 +8916,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9193,7 +9375,7 @@
       </c>
       <c r="W52" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9316,12 +9498,12 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="82" t="s">
+      <c r="V56" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="82">
+      <c r="W56" s="75">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9348,8 +9530,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="83"/>
-      <c r="W57" s="83"/>
+      <c r="V57" s="76"/>
+      <c r="W57" s="76"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9375,8 +9557,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="84"/>
-      <c r="W58" s="84"/>
+      <c r="V58" s="77"/>
+      <c r="W58" s="77"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10663,6 +10845,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -10673,16 +10865,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
